--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\flask_excel_website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B86CD3E-5D2B-4AB9-9D71-1656A5A0C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD108B91-64CD-485E-AD7A-E9005093AAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{31F6BF27-755E-4FBC-9788-80C65BCA0E00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31F6BF27-755E-4FBC-9788-80C65BCA0E00}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
@@ -480,5 +480,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\flask_excel_website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD108B91-64CD-485E-AD7A-E9005093AAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F7F2AD-D190-4835-A913-6387D755BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31F6BF27-755E-4FBC-9788-80C65BCA0E00}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>999</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
